--- a/进度计划表.xlsx
+++ b/进度计划表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SchoolworkInBIT\Unfinished\软件项目管理\第三次大作业\SoftwareProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F981248A-C37A-40FD-992F-6B04D45E6B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86EDAF9-EE6A-4788-89BD-7925A48784DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="2280" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13950" yWindow="2280" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,10 @@
   </si>
   <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/6/31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,9 +444,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,61 +501,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,59 +799,60 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="12" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="6" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="11">
+      <c r="H2" s="8"/>
+      <c r="I2" s="9">
         <v>45071</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -859,58 +861,58 @@
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="20"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -918,524 +920,514 @@
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="6">
         <v>45069</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="6">
+        <v>45103</v>
+      </c>
+      <c r="E5" s="6">
         <v>45072</v>
       </c>
-      <c r="E5" s="25">
-        <v>45072</v>
-      </c>
-      <c r="F5" s="25">
-        <v>45075</v>
-      </c>
-      <c r="G5" s="25">
-        <v>45075</v>
-      </c>
-      <c r="H5" s="25">
-        <v>45087</v>
-      </c>
-      <c r="I5" s="25">
-        <v>45087</v>
-      </c>
-      <c r="J5" s="25">
-        <v>45090</v>
-      </c>
-      <c r="K5" s="25">
-        <v>45097</v>
-      </c>
-      <c r="L5" s="25">
-        <v>45102</v>
+      <c r="F5" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G5" s="6">
+        <v>45106</v>
+      </c>
+      <c r="H5" s="6">
+        <v>45209</v>
+      </c>
+      <c r="I5" s="6">
+        <v>45209</v>
+      </c>
+      <c r="J5" s="6">
+        <v>45243</v>
+      </c>
+      <c r="K5" s="6">
+        <v>45250</v>
+      </c>
+      <c r="L5" s="6">
+        <v>45285</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="6">
         <v>45069</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="6">
+        <v>45102</v>
+      </c>
+      <c r="E6" s="6">
         <v>45071</v>
       </c>
-      <c r="E6" s="25">
-        <v>45071</v>
-      </c>
-      <c r="F6" s="25">
-        <v>45074</v>
-      </c>
-      <c r="G6" s="25">
-        <v>45074</v>
-      </c>
-      <c r="H6" s="25">
-        <v>45089</v>
-      </c>
-      <c r="I6" s="25">
-        <v>45089</v>
-      </c>
-      <c r="J6" s="25">
-        <v>45091</v>
-      </c>
-      <c r="K6" s="25">
-        <v>45097</v>
-      </c>
-      <c r="L6" s="25">
-        <v>45102</v>
+      <c r="F6" s="6">
+        <v>45105</v>
+      </c>
+      <c r="G6" s="6">
+        <v>45105</v>
+      </c>
+      <c r="H6" s="6">
+        <v>45211</v>
+      </c>
+      <c r="I6" s="6">
+        <v>45211</v>
+      </c>
+      <c r="J6" s="6">
+        <v>45244</v>
+      </c>
+      <c r="K6" s="6">
+        <v>45250</v>
+      </c>
+      <c r="L6" s="6">
+        <v>45285</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="6">
         <v>45069</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="6">
+        <v>45103</v>
+      </c>
+      <c r="E7" s="6">
         <v>45072</v>
       </c>
-      <c r="E7" s="25">
-        <v>45072</v>
-      </c>
-      <c r="F7" s="25">
-        <v>45075</v>
-      </c>
-      <c r="G7" s="25">
-        <v>45075</v>
-      </c>
-      <c r="H7" s="25">
-        <v>45088</v>
-      </c>
-      <c r="I7" s="25">
-        <v>45088</v>
-      </c>
-      <c r="J7" s="25">
-        <v>45090</v>
-      </c>
-      <c r="K7" s="25">
-        <v>45097</v>
-      </c>
-      <c r="L7" s="25">
-        <v>45102</v>
+      <c r="F7" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G7" s="6">
+        <v>45106</v>
+      </c>
+      <c r="H7" s="6">
+        <v>45180</v>
+      </c>
+      <c r="I7" s="6">
+        <v>45180</v>
+      </c>
+      <c r="J7" s="6">
+        <v>45212</v>
+      </c>
+      <c r="K7" s="6">
+        <v>45250</v>
+      </c>
+      <c r="L7" s="6">
+        <v>45285</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="6">
         <v>45071</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="6">
+        <v>45104</v>
+      </c>
+      <c r="E8" s="6">
         <v>45073</v>
       </c>
-      <c r="E8" s="25">
-        <v>45073</v>
-      </c>
-      <c r="F8" s="25">
-        <v>45076</v>
-      </c>
-      <c r="G8" s="25">
-        <v>45076</v>
-      </c>
-      <c r="H8" s="25">
-        <v>45092</v>
-      </c>
-      <c r="I8" s="25">
-        <v>45092</v>
-      </c>
-      <c r="J8" s="25">
-        <v>45094</v>
-      </c>
-      <c r="K8" s="25">
-        <v>45097</v>
-      </c>
-      <c r="L8" s="25">
-        <v>45102</v>
+      <c r="F8" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45107</v>
+      </c>
+      <c r="H8" s="6">
+        <v>45184</v>
+      </c>
+      <c r="I8" s="6">
+        <v>45184</v>
+      </c>
+      <c r="J8" s="6">
+        <v>45216</v>
+      </c>
+      <c r="K8" s="6">
+        <v>45250</v>
+      </c>
+      <c r="L8" s="6">
+        <v>45285</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="6">
         <v>45070</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="6">
+        <v>45105</v>
+      </c>
+      <c r="E9" s="6">
         <v>45074</v>
       </c>
-      <c r="E9" s="25">
-        <v>45074</v>
-      </c>
-      <c r="F9" s="25">
-        <v>45077</v>
-      </c>
-      <c r="G9" s="25">
-        <v>45077</v>
-      </c>
-      <c r="H9" s="25">
-        <v>45091</v>
-      </c>
-      <c r="I9" s="25">
-        <v>45091</v>
-      </c>
-      <c r="J9" s="25">
-        <v>45094</v>
-      </c>
-      <c r="K9" s="25">
-        <v>45097</v>
-      </c>
-      <c r="L9" s="25">
-        <v>45102</v>
+      <c r="F9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="6">
+        <v>45213</v>
+      </c>
+      <c r="I9" s="6">
+        <v>45213</v>
+      </c>
+      <c r="J9" s="6">
+        <v>45247</v>
+      </c>
+      <c r="K9" s="6">
+        <v>45250</v>
+      </c>
+      <c r="L9" s="6">
+        <v>45285</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="6">
         <v>45069</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="6">
+        <v>45103</v>
+      </c>
+      <c r="E10" s="6">
         <v>45072</v>
       </c>
-      <c r="E10" s="25">
-        <v>45072</v>
-      </c>
-      <c r="F10" s="25">
-        <v>45075</v>
-      </c>
-      <c r="G10" s="25">
-        <v>45075</v>
-      </c>
-      <c r="H10" s="25">
-        <v>45092</v>
-      </c>
-      <c r="I10" s="25">
-        <v>45092</v>
-      </c>
-      <c r="J10" s="25">
-        <v>45095</v>
-      </c>
-      <c r="K10" s="25">
-        <v>45097</v>
-      </c>
-      <c r="L10" s="25">
-        <v>45102</v>
+      <c r="F10" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G10" s="6">
+        <v>45106</v>
+      </c>
+      <c r="H10" s="6">
+        <v>45214</v>
+      </c>
+      <c r="I10" s="6">
+        <v>45214</v>
+      </c>
+      <c r="J10" s="6">
+        <v>45248</v>
+      </c>
+      <c r="K10" s="6">
+        <v>45250</v>
+      </c>
+      <c r="L10" s="6">
+        <v>45285</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="6">
         <v>45072</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="6">
+        <v>45105</v>
+      </c>
+      <c r="E11" s="6">
         <v>45074</v>
       </c>
-      <c r="E11" s="25">
-        <v>45074</v>
-      </c>
-      <c r="F11" s="25">
+      <c r="F11" s="6">
         <v>45078</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="6">
         <v>45078</v>
       </c>
-      <c r="H11" s="25">
-        <v>45093</v>
-      </c>
-      <c r="I11" s="25">
-        <v>45093</v>
-      </c>
-      <c r="J11" s="25">
-        <v>45096</v>
-      </c>
-      <c r="K11" s="25">
-        <v>45097</v>
-      </c>
-      <c r="L11" s="25">
-        <v>45102</v>
+      <c r="H11" s="6">
+        <v>45215</v>
+      </c>
+      <c r="I11" s="6">
+        <v>45215</v>
+      </c>
+      <c r="J11" s="6">
+        <v>45249</v>
+      </c>
+      <c r="K11" s="6">
+        <v>45250</v>
+      </c>
+      <c r="L11" s="6">
+        <v>45285</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="6">
         <v>45069</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="6">
+        <v>45103</v>
+      </c>
+      <c r="E12" s="6">
         <v>45072</v>
       </c>
-      <c r="E12" s="25">
-        <v>45072</v>
-      </c>
-      <c r="F12" s="25">
-        <v>45074</v>
-      </c>
-      <c r="G12" s="25">
-        <v>45074</v>
-      </c>
-      <c r="H12" s="25">
-        <v>45089</v>
-      </c>
-      <c r="I12" s="25">
-        <v>45089</v>
-      </c>
-      <c r="J12" s="25">
-        <v>45092</v>
-      </c>
-      <c r="K12" s="25">
-        <v>45097</v>
-      </c>
-      <c r="L12" s="25">
-        <v>45102</v>
+      <c r="F12" s="6">
+        <v>45105</v>
+      </c>
+      <c r="G12" s="6">
+        <v>45105</v>
+      </c>
+      <c r="H12" s="6">
+        <v>45211</v>
+      </c>
+      <c r="I12" s="6">
+        <v>45211</v>
+      </c>
+      <c r="J12" s="6">
+        <v>45245</v>
+      </c>
+      <c r="K12" s="6">
+        <v>45250</v>
+      </c>
+      <c r="L12" s="6">
+        <v>45285</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="6">
         <v>45072</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="6">
+        <v>45106</v>
+      </c>
+      <c r="E13" s="6">
         <v>45075</v>
       </c>
-      <c r="E13" s="25">
-        <v>45075</v>
-      </c>
-      <c r="F13" s="25">
+      <c r="F13" s="6">
         <v>45078</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="6">
         <v>45078</v>
       </c>
-      <c r="H13" s="25">
-        <v>45088</v>
-      </c>
-      <c r="I13" s="25">
-        <v>45088</v>
-      </c>
-      <c r="J13" s="25">
-        <v>45092</v>
-      </c>
-      <c r="K13" s="25">
-        <v>45097</v>
-      </c>
-      <c r="L13" s="25">
-        <v>45102</v>
+      <c r="H13" s="6">
+        <v>45210</v>
+      </c>
+      <c r="I13" s="6">
+        <v>45210</v>
+      </c>
+      <c r="J13" s="6">
+        <v>45245</v>
+      </c>
+      <c r="K13" s="6">
+        <v>45250</v>
+      </c>
+      <c r="L13" s="6">
+        <v>45285</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="6">
         <v>45075</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6">
         <v>45077</v>
       </c>
-      <c r="E14" s="25">
-        <v>45077</v>
-      </c>
-      <c r="F14" s="25">
+      <c r="F14" s="6">
         <v>45079</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="6">
         <v>45079</v>
       </c>
-      <c r="H14" s="25">
-        <v>45087</v>
-      </c>
-      <c r="I14" s="25">
-        <v>45087</v>
-      </c>
-      <c r="J14" s="25">
-        <v>45090</v>
-      </c>
-      <c r="K14" s="25">
-        <v>45097</v>
-      </c>
-      <c r="L14" s="25">
-        <v>45102</v>
+      <c r="H14" s="6">
+        <v>45179</v>
+      </c>
+      <c r="I14" s="6">
+        <v>45179</v>
+      </c>
+      <c r="J14" s="6">
+        <v>45212</v>
+      </c>
+      <c r="K14" s="6">
+        <v>45250</v>
+      </c>
+      <c r="L14" s="6">
+        <v>45285</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="6">
         <v>45071</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="6">
+        <v>45103</v>
+      </c>
+      <c r="E15" s="6">
         <v>45072</v>
       </c>
-      <c r="E15" s="25">
-        <v>45072</v>
-      </c>
-      <c r="F15" s="25">
-        <v>45076</v>
-      </c>
-      <c r="G15" s="25">
-        <v>45076</v>
-      </c>
-      <c r="H15" s="25">
-        <v>45089</v>
-      </c>
-      <c r="I15" s="25">
-        <v>45089</v>
-      </c>
-      <c r="J15" s="25">
-        <v>45093</v>
-      </c>
-      <c r="K15" s="25">
-        <v>45097</v>
-      </c>
-      <c r="L15" s="25">
-        <v>45102</v>
+      <c r="F15" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G15" s="6">
+        <v>45107</v>
+      </c>
+      <c r="H15" s="6">
+        <v>45181</v>
+      </c>
+      <c r="I15" s="6">
+        <v>45181</v>
+      </c>
+      <c r="J15" s="6">
+        <v>45215</v>
+      </c>
+      <c r="K15" s="6">
+        <v>45250</v>
+      </c>
+      <c r="L15" s="6">
+        <v>45285</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="6">
         <v>45071</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="6">
+        <v>45104</v>
+      </c>
+      <c r="E16" s="6">
         <v>45073</v>
       </c>
-      <c r="E16" s="25">
-        <v>45073</v>
-      </c>
-      <c r="F16" s="25">
-        <v>45076</v>
-      </c>
-      <c r="G16" s="25">
-        <v>45076</v>
-      </c>
-      <c r="H16" s="25">
-        <v>45090</v>
-      </c>
-      <c r="I16" s="25">
-        <v>45090</v>
-      </c>
-      <c r="J16" s="25">
-        <v>45092</v>
-      </c>
-      <c r="K16" s="25">
-        <v>45097</v>
-      </c>
-      <c r="L16" s="25">
-        <v>45102</v>
+      <c r="F16" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G16" s="6">
+        <v>45107</v>
+      </c>
+      <c r="H16" s="6">
+        <v>45212</v>
+      </c>
+      <c r="I16" s="6">
+        <v>45212</v>
+      </c>
+      <c r="J16" s="6">
+        <v>45245</v>
+      </c>
+      <c r="K16" s="6">
+        <v>45250</v>
+      </c>
+      <c r="L16" s="6">
+        <v>45285</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="6">
         <v>45069</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="6">
+        <v>45103</v>
+      </c>
+      <c r="E17" s="6">
         <v>45072</v>
       </c>
-      <c r="E17" s="25">
-        <v>45072</v>
-      </c>
-      <c r="F17" s="25">
-        <v>45075</v>
-      </c>
-      <c r="G17" s="25">
-        <v>45075</v>
-      </c>
-      <c r="H17" s="25">
-        <v>45089</v>
-      </c>
-      <c r="I17" s="25">
-        <v>45089</v>
-      </c>
-      <c r="J17" s="25">
-        <v>45092</v>
-      </c>
-      <c r="K17" s="25">
-        <v>45097</v>
-      </c>
-      <c r="L17" s="25">
-        <v>45102</v>
+      <c r="F17" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G17" s="6">
+        <v>45106</v>
+      </c>
+      <c r="H17" s="6">
+        <v>45211</v>
+      </c>
+      <c r="I17" s="6">
+        <v>45211</v>
+      </c>
+      <c r="J17" s="6">
+        <v>45245</v>
+      </c>
+      <c r="K17" s="6">
+        <v>45250</v>
+      </c>
+      <c r="L17" s="6">
+        <v>45285</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="6">
         <v>45069</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="6">
+        <v>45102</v>
+      </c>
+      <c r="E18" s="6">
         <v>45071</v>
       </c>
-      <c r="E18" s="25">
-        <v>45071</v>
-      </c>
-      <c r="F18" s="25">
-        <v>45075</v>
-      </c>
-      <c r="G18" s="25">
-        <v>45075</v>
-      </c>
-      <c r="H18" s="25">
-        <v>45088</v>
-      </c>
-      <c r="I18" s="25">
-        <v>45088</v>
-      </c>
-      <c r="J18" s="25">
-        <v>45093</v>
-      </c>
-      <c r="K18" s="25">
-        <v>45097</v>
-      </c>
-      <c r="L18" s="25">
-        <v>45102</v>
+      <c r="F18" s="6">
+        <v>45106</v>
+      </c>
+      <c r="G18" s="6">
+        <v>45106</v>
+      </c>
+      <c r="H18" s="6">
+        <v>45210</v>
+      </c>
+      <c r="I18" s="6">
+        <v>45210</v>
+      </c>
+      <c r="J18" s="6">
+        <v>45246</v>
+      </c>
+      <c r="K18" s="6">
+        <v>45250</v>
+      </c>
+      <c r="L18" s="6">
+        <v>45285</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -1444,6 +1436,16 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/进度计划表.xlsx
+++ b/进度计划表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SchoolworkInBIT\Unfinished\软件项目管理\第三次大作业\SoftwareProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86EDAF9-EE6A-4788-89BD-7925A48784DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FF1F27-58D7-4D84-A3DA-CCFD0CC4AF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="2280" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="4095" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,12 +462,48 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="31" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,43 +513,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,7 +799,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -810,81 +810,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="19" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="8"/>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="20"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="7" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="20" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="8"/>
-      <c r="I2" s="9">
+      <c r="I2" s="21">
         <v>45071</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="24" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="13"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -917,7 +917,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -991,7 +991,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1027,7 +1027,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1065,7 +1065,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1101,7 +1101,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1137,7 +1137,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1173,7 +1173,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1209,7 +1209,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1245,7 +1245,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1283,7 +1283,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1319,7 +1319,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1391,7 +1391,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1428,6 +1428,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A13"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -1436,16 +1443,9 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
